--- a/data/par/2.xlsx
+++ b/data/par/2.xlsx
@@ -481,79 +481,79 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.354242e-08</v>
+        <v>0.0001338218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1010057926177979</v>
+        <v>0.106006383895874</v>
       </c>
       <c r="B8" t="n">
-        <v>4.334649e-08</v>
+        <v>0.0001338052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2050116062164307</v>
+        <v>0.216012716293335</v>
       </c>
       <c r="B9" t="n">
-        <v>4.351165e-08</v>
+        <v>0.0001337938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3100175857543945</v>
+        <v>0.3030176162719727</v>
       </c>
       <c r="B10" t="n">
-        <v>4.317359e-08</v>
+        <v>0.0001338093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4040231704711914</v>
+        <v>0.4140238761901855</v>
       </c>
       <c r="B11" t="n">
-        <v>4.322532e-08</v>
+        <v>0.0001338783</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5040287971496582</v>
+        <v>0.5190298557281494</v>
       </c>
       <c r="B12" t="n">
-        <v>4.266344e-08</v>
+        <v>0.0001339007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6110348701477051</v>
+        <v>0.6020348072052002</v>
       </c>
       <c r="B13" t="n">
-        <v>4.374235e-08</v>
+        <v>0.0001338922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7010400295257568</v>
+        <v>0.707040548324585</v>
       </c>
       <c r="B14" t="n">
-        <v>4.233946e-08</v>
+        <v>0.0001339333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8030459880828857</v>
+        <v>0.8140468597412109</v>
       </c>
       <c r="B15" t="n">
-        <v>4.362923e-08</v>
+        <v>0.0001339573</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9080519676208496</v>
+        <v>0.9060518741607666</v>
       </c>
       <c r="B16" t="n">
-        <v>4.380729e-08</v>
+        <v>0.0001339698</v>
       </c>
     </row>
     <row r="17">
@@ -561,7 +561,7 @@
         <v>1.007057666778564</v>
       </c>
       <c r="B17" t="n">
-        <v>4.255811e-08</v>
+        <v>0.0001339723</v>
       </c>
     </row>
     <row r="18">
@@ -569,2247 +569,2247 @@
         <v>1.115063905715942</v>
       </c>
       <c r="B18" t="n">
-        <v>4.288206e-08</v>
+        <v>0.0001338991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.205068826675415</v>
+        <v>1.206068992614746</v>
       </c>
       <c r="B19" t="n">
-        <v>4.374763e-08</v>
+        <v>0.0001338469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.306074619293213</v>
+        <v>1.311075210571289</v>
       </c>
       <c r="B20" t="n">
-        <v>4.343966e-08</v>
+        <v>0.0001339215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.415081024169922</v>
+        <v>1.416081190109253</v>
       </c>
       <c r="B21" t="n">
-        <v>4.356981e-08</v>
+        <v>0.0001338847</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.507086038589478</v>
+        <v>1.509086608886719</v>
       </c>
       <c r="B22" t="n">
-        <v>4.256527e-08</v>
+        <v>0.0001338695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.611092090606689</v>
+        <v>1.6120924949646</v>
       </c>
       <c r="B23" t="n">
-        <v>4.370011e-08</v>
+        <v>0.0001338367</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.719098329544067</v>
+        <v>1.719098567962646</v>
       </c>
       <c r="B24" t="n">
-        <v>4.371541e-08</v>
+        <v>0.0001337968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.800102949142456</v>
+        <v>1.800103187561035</v>
       </c>
       <c r="B25" t="n">
-        <v>4.348909e-08</v>
+        <v>0.0001336585</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.918109655380249</v>
+        <v>1.912109613418579</v>
       </c>
       <c r="B26" t="n">
-        <v>4.264011e-08</v>
+        <v>0.0001336649</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.022115707397461</v>
+        <v>2.016115665435791</v>
       </c>
       <c r="B27" t="n">
-        <v>4.360825e-08</v>
+        <v>0.0001337006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.104120254516602</v>
+        <v>2.101120471954346</v>
       </c>
       <c r="B28" t="n">
-        <v>4.365102e-08</v>
+        <v>0.0001336204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.212126493453979</v>
+        <v>2.205126285552979</v>
       </c>
       <c r="B29" t="n">
-        <v>4.331592e-08</v>
+        <v>0.0001336248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.320132732391357</v>
+        <v>2.315132617950439</v>
       </c>
       <c r="B30" t="n">
-        <v>4.383695e-08</v>
+        <v>0.0001337128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.409137725830078</v>
+        <v>2.40413761138916</v>
       </c>
       <c r="B31" t="n">
-        <v>4.232947e-08</v>
+        <v>0.0001336298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.502142906188965</v>
+        <v>2.506143569946289</v>
       </c>
       <c r="B32" t="n">
-        <v>4.388865e-08</v>
+        <v>0.0001335714</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.602148771286011</v>
+        <v>2.615149736404419</v>
       </c>
       <c r="B33" t="n">
-        <v>4.381917e-08</v>
+        <v>0.0001335956</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.706154823303223</v>
+        <v>2.705154895782471</v>
       </c>
       <c r="B34" t="n">
-        <v>4.242856e-08</v>
+        <v>0.0001335734</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.806160449981689</v>
+        <v>2.808160781860352</v>
       </c>
       <c r="B35" t="n">
-        <v>4.332092e-08</v>
+        <v>0.0001334936</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.915166616439819</v>
+        <v>2.914166927337646</v>
       </c>
       <c r="B36" t="n">
-        <v>4.304241e-08</v>
+        <v>0.0001335601</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.001171827316284</v>
+        <v>3.002171993255615</v>
       </c>
       <c r="B37" t="n">
-        <v>4.217998e-08</v>
+        <v>0.0001334468</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.111177682876587</v>
+        <v>3.111178159713745</v>
       </c>
       <c r="B38" t="n">
-        <v>4.397013e-08</v>
+        <v>0.0001335286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.206183433532715</v>
+        <v>3.204183340072632</v>
       </c>
       <c r="B39" t="n">
-        <v>4.380114e-08</v>
+        <v>0.0001333746</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.303188800811768</v>
+        <v>3.300189018249512</v>
       </c>
       <c r="B40" t="n">
-        <v>4.281896e-08</v>
+        <v>0.0001334378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.411195039749146</v>
+        <v>3.420195817947388</v>
       </c>
       <c r="B41" t="n">
-        <v>4.391894e-08</v>
+        <v>0.0001333166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.515201091766357</v>
+        <v>3.534202575683594</v>
       </c>
       <c r="B42" t="n">
-        <v>4.335882e-08</v>
+        <v>0.0001332514</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.606206178665161</v>
+        <v>3.637208461761475</v>
       </c>
       <c r="B43" t="n">
-        <v>4.239235e-08</v>
+        <v>0.0001331962</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.707211971282959</v>
+        <v>3.7092125415802</v>
       </c>
       <c r="B44" t="n">
-        <v>4.292527e-08</v>
+        <v>0.0001332684</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.81721830368042</v>
+        <v>3.800217628479004</v>
       </c>
       <c r="B45" t="n">
-        <v>4.312529e-08</v>
+        <v>0.0001331294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.909223318099976</v>
+        <v>3.902223587036133</v>
       </c>
       <c r="B46" t="n">
-        <v>4.333122e-08</v>
+        <v>0.0001329859</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.005228996276855</v>
+        <v>4.009229421615601</v>
       </c>
       <c r="B47" t="n">
-        <v>4.405153e-08</v>
+        <v>0.000133023</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.119235515594482</v>
+        <v>4.113235473632812</v>
       </c>
       <c r="B48" t="n">
-        <v>4.373642e-08</v>
+        <v>0.0001330682</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.201240301132202</v>
+        <v>4.204240798950195</v>
       </c>
       <c r="B49" t="n">
-        <v>4.285847e-08</v>
+        <v>0.000132988</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.311246633529663</v>
+        <v>4.301246404647827</v>
       </c>
       <c r="B50" t="n">
-        <v>4.382039e-08</v>
+        <v>0.0001329256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.419252634048462</v>
+        <v>4.404252052307129</v>
       </c>
       <c r="B51" t="n">
-        <v>4.381681e-08</v>
+        <v>0.0001327422</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.501257419586182</v>
+        <v>4.508258104324341</v>
       </c>
       <c r="B52" t="n">
-        <v>4.308867e-08</v>
+        <v>0.0001326186</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.614263772964478</v>
+        <v>4.606263637542725</v>
       </c>
       <c r="B53" t="n">
-        <v>4.368868e-08</v>
+        <v>0.0001324379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.718270063400269</v>
+        <v>4.713269948959351</v>
       </c>
       <c r="B54" t="n">
-        <v>4.255961e-08</v>
+        <v>0.0001324537</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.807275056838989</v>
+        <v>4.800274848937988</v>
       </c>
       <c r="B55" t="n">
-        <v>4.295058e-08</v>
+        <v>0.0001323575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.909280776977539</v>
+        <v>4.907280921936035</v>
       </c>
       <c r="B56" t="n">
-        <v>4.253315e-08</v>
+        <v>0.0001323299</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.015286684036255</v>
+        <v>5.01328706741333</v>
       </c>
       <c r="B57" t="n">
-        <v>4.292863e-08</v>
+        <v>0.0001324208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.104291915893555</v>
+        <v>5.102292060852051</v>
       </c>
       <c r="B58" t="n">
-        <v>4.37963e-08</v>
+        <v>0.0001323995</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.208297729492188</v>
+        <v>5.209298372268677</v>
       </c>
       <c r="B59" t="n">
-        <v>4.385095e-08</v>
+        <v>0.0001323754</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.303303241729736</v>
+        <v>5.31330418586731</v>
       </c>
       <c r="B60" t="n">
-        <v>4.36215e-08</v>
+        <v>0.0001322358</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.407309293746948</v>
+        <v>5.411309719085693</v>
       </c>
       <c r="B61" t="n">
-        <v>4.264403e-08</v>
+        <v>0.0001321852</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.506314754486084</v>
+        <v>5.503314971923828</v>
       </c>
       <c r="B62" t="n">
-        <v>4.226519e-08</v>
+        <v>0.0001322136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.616321086883545</v>
+        <v>5.612321138381958</v>
       </c>
       <c r="B63" t="n">
-        <v>4.369411e-08</v>
+        <v>0.0001323473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.70832633972168</v>
+        <v>5.708326816558838</v>
       </c>
       <c r="B64" t="n">
-        <v>4.391693e-08</v>
+        <v>0.000132307</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.809332132339478</v>
+        <v>5.809332609176636</v>
       </c>
       <c r="B65" t="n">
-        <v>4.319024e-08</v>
+        <v>0.0001323012</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.916338443756104</v>
+        <v>5.913338422775269</v>
       </c>
       <c r="B66" t="n">
-        <v>4.373729e-08</v>
+        <v>0.0001323417</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.006343364715576</v>
+        <v>6.004343748092651</v>
       </c>
       <c r="B67" t="n">
-        <v>4.373353e-08</v>
+        <v>0.0001323725</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.111349582672119</v>
+        <v>6.109349727630615</v>
       </c>
       <c r="B68" t="n">
-        <v>4.373233e-08</v>
+        <v>0.0001324345</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.217355489730835</v>
+        <v>6.214355945587158</v>
       </c>
       <c r="B69" t="n">
-        <v>4.260191e-08</v>
+        <v>0.0001324246</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.308360815048218</v>
+        <v>6.305361032485962</v>
       </c>
       <c r="B70" t="n">
-        <v>4.390685e-08</v>
+        <v>0.0001324208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.425367593765259</v>
+        <v>6.409366846084595</v>
       </c>
       <c r="B71" t="n">
-        <v>4.231138e-08</v>
+        <v>0.0001325392</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.516372680664062</v>
+        <v>6.514372825622559</v>
       </c>
       <c r="B72" t="n">
-        <v>4.352038e-08</v>
+        <v>0.0001325074</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.607378005981445</v>
+        <v>6.605377912521362</v>
       </c>
       <c r="B73" t="n">
-        <v>4.355731e-08</v>
+        <v>0.0001325807</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.70638370513916</v>
+        <v>6.704383611679077</v>
       </c>
       <c r="B74" t="n">
-        <v>4.24007e-08</v>
+        <v>0.0001325223</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.815389633178711</v>
+        <v>6.814390182495117</v>
       </c>
       <c r="B75" t="n">
-        <v>4.34108e-08</v>
+        <v>0.0001327049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.906394958496094</v>
+        <v>6.905395269393921</v>
       </c>
       <c r="B76" t="n">
-        <v>4.233431e-08</v>
+        <v>0.0001325675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.011400938034058</v>
+        <v>7.000400543212891</v>
       </c>
       <c r="B77" t="n">
-        <v>4.356787e-08</v>
+        <v>0.0001327272</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.118407249450684</v>
+        <v>7.10240650177002</v>
       </c>
       <c r="B78" t="n">
-        <v>4.370269e-08</v>
+        <v>0.0001326957</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.200411558151245</v>
+        <v>7.207412481307983</v>
       </c>
       <c r="B79" t="n">
-        <v>4.372549e-08</v>
+        <v>0.0001326432</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.324418783187866</v>
+        <v>7.308418273925781</v>
       </c>
       <c r="B80" t="n">
-        <v>4.300668e-08</v>
+        <v>0.0001327334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.405423641204834</v>
+        <v>7.41642427444458</v>
       </c>
       <c r="B81" t="n">
-        <v>4.366914e-08</v>
+        <v>0.0001327915</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.509429454803467</v>
+        <v>7.507429599761963</v>
       </c>
       <c r="B82" t="n">
-        <v>4.358224e-08</v>
+        <v>0.0001327078</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.609435081481934</v>
+        <v>7.606435298919678</v>
       </c>
       <c r="B83" t="n">
-        <v>4.335553e-08</v>
+        <v>0.0001327799</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.718441486358643</v>
+        <v>7.715441465377808</v>
       </c>
       <c r="B84" t="n">
-        <v>4.263935e-08</v>
+        <v>0.0001327467</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.809446573257446</v>
+        <v>7.808446884155273</v>
       </c>
       <c r="B85" t="n">
-        <v>4.220976e-08</v>
+        <v>0.0001326824</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.926453351974487</v>
+        <v>7.924453496932983</v>
       </c>
       <c r="B86" t="n">
-        <v>4.237539e-08</v>
+        <v>0.0001327056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.007457971572876</v>
+        <v>8.006458282470703</v>
       </c>
       <c r="B87" t="n">
-        <v>4.357505e-08</v>
+        <v>0.0001326452</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.110463857650757</v>
+        <v>8.112464189529419</v>
       </c>
       <c r="B88" t="n">
-        <v>4.349466e-08</v>
+        <v>0.0001326799</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.203469038009644</v>
+        <v>8.204469680786133</v>
       </c>
       <c r="B89" t="n">
-        <v>4.260688e-08</v>
+        <v>0.0001325805</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.317475557327271</v>
+        <v>8.315475940704346</v>
       </c>
       <c r="B90" t="n">
-        <v>4.305745e-08</v>
+        <v>0.0001325743</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.409481048583984</v>
+        <v>8.40748119354248</v>
       </c>
       <c r="B91" t="n">
-        <v>4.213761e-08</v>
+        <v>0.0001325727</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.502486228942871</v>
+        <v>8.507486820220947</v>
       </c>
       <c r="B92" t="n">
-        <v>4.372018e-08</v>
+        <v>0.0001324654</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.604491949081421</v>
+        <v>8.617493152618408</v>
       </c>
       <c r="B93" t="n">
-        <v>4.304292e-08</v>
+        <v>0.0001324596</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.709498167037964</v>
+        <v>8.709498405456543</v>
       </c>
       <c r="B94" t="n">
-        <v>4.230965e-08</v>
+        <v>0.0001325267</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.802503347396851</v>
+        <v>8.822504758834839</v>
       </c>
       <c r="B95" t="n">
-        <v>4.368997e-08</v>
+        <v>0.0001325785</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.904509305953979</v>
+        <v>8.938511371612549</v>
       </c>
       <c r="B96" t="n">
-        <v>4.354949e-08</v>
+        <v>0.0001325483</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.009515285491943</v>
+        <v>9.049517631530762</v>
       </c>
       <c r="B97" t="n">
-        <v>4.315393e-08</v>
+        <v>0.000132471</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.10952091217041</v>
+        <v>9.153523921966553</v>
       </c>
       <c r="B98" t="n">
-        <v>4.216502e-08</v>
+        <v>0.0001324487</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.211526870727539</v>
+        <v>9.244529008865356</v>
       </c>
       <c r="B99" t="n">
-        <v>4.350251e-08</v>
+        <v>0.0001323759</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.332533836364746</v>
+        <v>9.313532829284668</v>
       </c>
       <c r="B100" t="n">
-        <v>4.338769e-08</v>
+        <v>0.0001323974</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.402537822723389</v>
+        <v>9.413538694381714</v>
       </c>
       <c r="B101" t="n">
-        <v>4.358159e-08</v>
+        <v>0.0001323207</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.502543449401855</v>
+        <v>9.51954460144043</v>
       </c>
       <c r="B102" t="n">
-        <v>4.369022e-08</v>
+        <v>0.0001323755</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.605549335479736</v>
+        <v>9.607549905776978</v>
       </c>
       <c r="B103" t="n">
-        <v>4.364455e-08</v>
+        <v>0.000132306</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.703555107116699</v>
+        <v>9.709555625915527</v>
       </c>
       <c r="B104" t="n">
-        <v>4.22699e-08</v>
+        <v>0.0001322507</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.814561367034912</v>
+        <v>9.815561532974243</v>
       </c>
       <c r="B105" t="n">
-        <v>4.303123e-08</v>
+        <v>0.0001323063</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.905566453933716</v>
+        <v>9.905566930770874</v>
       </c>
       <c r="B106" t="n">
-        <v>4.353896e-08</v>
+        <v>0.0001321482</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.0015721321106</v>
+        <v>10.01157283782959</v>
       </c>
       <c r="B107" t="n">
-        <v>4.255243e-08</v>
+        <v>0.0001321523</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.11557865142822</v>
+        <v>10.10657835006714</v>
       </c>
       <c r="B108" t="n">
-        <v>4.357097e-08</v>
+        <v>0.0001321497</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.20658373832703</v>
+        <v>10.20858407020569</v>
       </c>
       <c r="B109" t="n">
-        <v>4.237433e-08</v>
+        <v>0.0001322134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.32459044456482</v>
+        <v>10.30858969688416</v>
       </c>
       <c r="B110" t="n">
-        <v>4.367577e-08</v>
+        <v>0.0001322136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.41859579086304</v>
+        <v>10.41259574890137</v>
       </c>
       <c r="B111" t="n">
-        <v>4.371481e-08</v>
+        <v>0.0001322052</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.50960111618042</v>
+        <v>10.509601354599</v>
       </c>
       <c r="B112" t="n">
-        <v>4.21269e-08</v>
+        <v>0.0001322402</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.6126070022583</v>
+        <v>10.60660696029663</v>
       </c>
       <c r="B113" t="n">
-        <v>4.197264e-08</v>
+        <v>0.0001321513</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.71961283683777</v>
+        <v>10.70861268043518</v>
       </c>
       <c r="B114" t="n">
-        <v>4.367061e-08</v>
+        <v>0.0001320682</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.80061769485474</v>
+        <v>10.80961847305298</v>
       </c>
       <c r="B115" t="n">
-        <v>4.21586e-08</v>
+        <v>0.0001321257</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.92462468147278</v>
+        <v>10.90862417221069</v>
       </c>
       <c r="B116" t="n">
-        <v>4.339529e-08</v>
+        <v>0.0001321146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.02063035964966</v>
+        <v>11.00962972640991</v>
       </c>
       <c r="B117" t="n">
-        <v>4.321084e-08</v>
+        <v>0.0001321847</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.1026349067688</v>
+        <v>11.1206362247467</v>
       </c>
       <c r="B118" t="n">
-        <v>4.371308e-08</v>
+        <v>0.0001321494</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.21164131164551</v>
+        <v>11.22564244270325</v>
       </c>
       <c r="B119" t="n">
-        <v>4.343881e-08</v>
+        <v>0.0001321874</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.31864738464355</v>
+        <v>11.3056468963623</v>
       </c>
       <c r="B120" t="n">
-        <v>4.345257e-08</v>
+        <v>0.0001321451</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.40165209770203</v>
+        <v>11.40865302085876</v>
       </c>
       <c r="B121" t="n">
-        <v>4.352628e-08</v>
+        <v>0.0001321623</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.50265789031982</v>
+        <v>11.50865864753723</v>
       </c>
       <c r="B122" t="n">
-        <v>4.373911e-08</v>
+        <v>0.0001321587</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.60466361045837</v>
+        <v>11.61266446113586</v>
       </c>
       <c r="B123" t="n">
-        <v>4.313698e-08</v>
+        <v>0.0001321555</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.71066975593567</v>
+        <v>11.7066695690155</v>
       </c>
       <c r="B124" t="n">
-        <v>4.337961e-08</v>
+        <v>0.0001321042</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.80167508125305</v>
+        <v>11.80567526817322</v>
       </c>
       <c r="B125" t="n">
-        <v>4.369603e-08</v>
+        <v>0.0001321085</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.90468096733093</v>
+        <v>11.9136815071106</v>
       </c>
       <c r="B126" t="n">
-        <v>4.340537e-08</v>
+        <v>0.0001321093</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.01068687438965</v>
+        <v>12.00868725776672</v>
       </c>
       <c r="B127" t="n">
-        <v>4.332522e-08</v>
+        <v>0.0001320884</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.10369229316711</v>
+        <v>12.10869288444519</v>
       </c>
       <c r="B128" t="n">
-        <v>4.368462e-08</v>
+        <v>0.0001320442</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.21669864654541</v>
+        <v>12.20969867706299</v>
       </c>
       <c r="B129" t="n">
-        <v>4.347273e-08</v>
+        <v>0.0001321016</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.30870389938354</v>
+        <v>12.31670451164246</v>
       </c>
       <c r="B130" t="n">
-        <v>4.339585e-08</v>
+        <v>0.0001321513</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.40470933914185</v>
+        <v>12.42471098899841</v>
       </c>
       <c r="B131" t="n">
-        <v>4.346699e-08</v>
+        <v>0.0001321061</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.50771522521973</v>
+        <v>12.51071572303772</v>
       </c>
       <c r="B132" t="n">
-        <v>4.32696e-08</v>
+        <v>0.000132051</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.61272144317627</v>
+        <v>12.63272285461426</v>
       </c>
       <c r="B133" t="n">
-        <v>4.32283e-08</v>
+        <v>0.0001321475</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.70472645759583</v>
+        <v>12.73672866821289</v>
       </c>
       <c r="B134" t="n">
-        <v>4.33375e-08</v>
+        <v>0.000132058</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>12.81573295593262</v>
+        <v>12.84473490715027</v>
       </c>
       <c r="B135" t="n">
-        <v>4.344563e-08</v>
+        <v>0.0001321025</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.90773844718933</v>
+        <v>12.93174004554749</v>
       </c>
       <c r="B136" t="n">
-        <v>4.332152e-08</v>
+        <v>0.0001321601</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.0077440738678</v>
+        <v>13.02774548530579</v>
       </c>
       <c r="B137" t="n">
-        <v>4.275699e-08</v>
+        <v>0.0001321543</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.12075042724609</v>
+        <v>13.10774993896484</v>
       </c>
       <c r="B138" t="n">
-        <v>4.22368e-08</v>
+        <v>0.000132122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.21075558662415</v>
+        <v>13.20975565910339</v>
       </c>
       <c r="B139" t="n">
-        <v>4.3205e-08</v>
+        <v>0.0001321334</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.30376100540161</v>
+        <v>13.30976128578186</v>
       </c>
       <c r="B140" t="n">
-        <v>4.199959e-08</v>
+        <v>0.0001320708</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.41776752471924</v>
+        <v>13.41176748275757</v>
       </c>
       <c r="B141" t="n">
-        <v>4.228221e-08</v>
+        <v>0.0001321812</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.50077199935913</v>
+        <v>13.50777268409729</v>
       </c>
       <c r="B142" t="n">
-        <v>4.349399e-08</v>
+        <v>0.0001321417</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13.61677885055542</v>
+        <v>13.606778383255</v>
       </c>
       <c r="B143" t="n">
-        <v>4.335301e-08</v>
+        <v>0.0001321179</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.72278475761414</v>
+        <v>13.70978450775146</v>
       </c>
       <c r="B144" t="n">
-        <v>4.332387e-08</v>
+        <v>0.0001320492</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.81278991699219</v>
+        <v>13.81679034233093</v>
       </c>
       <c r="B145" t="n">
-        <v>4.205648e-08</v>
+        <v>0.0001321184</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.90479516983032</v>
+        <v>13.92479681968689</v>
       </c>
       <c r="B146" t="n">
-        <v>4.32996e-08</v>
+        <v>0.0001321258</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.02280211448669</v>
+        <v>14.00480151176453</v>
       </c>
       <c r="B147" t="n">
-        <v>4.280653e-08</v>
+        <v>0.0001321073</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.13480830192566</v>
+        <v>14.10780715942383</v>
       </c>
       <c r="B148" t="n">
-        <v>4.212306e-08</v>
+        <v>0.0001320938</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.22581386566162</v>
+        <v>14.20781302452087</v>
       </c>
       <c r="B149" t="n">
-        <v>4.184431e-08</v>
+        <v>0.0001321139</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.30881834030151</v>
+        <v>14.31381893157959</v>
       </c>
       <c r="B150" t="n">
-        <v>4.271837e-08</v>
+        <v>0.0001320631</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.41682457923889</v>
+        <v>14.40282416343689</v>
       </c>
       <c r="B151" t="n">
-        <v>4.321964e-08</v>
+        <v>0.0001321091</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.5278308391571</v>
+        <v>14.50783014297485</v>
       </c>
       <c r="B152" t="n">
-        <v>4.317655e-08</v>
+        <v>0.0001319489</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14.60083508491516</v>
+        <v>14.61683630943298</v>
       </c>
       <c r="B153" t="n">
-        <v>4.311889e-08</v>
+        <v>0.0001319744</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.70784091949463</v>
+        <v>14.70784139633179</v>
       </c>
       <c r="B154" t="n">
-        <v>4.310409e-08</v>
+        <v>0.0001320045</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.80084657669067</v>
+        <v>14.81184720993042</v>
       </c>
       <c r="B155" t="n">
-        <v>4.306057e-08</v>
+        <v>0.0001320219</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.90885281562805</v>
+        <v>14.91685342788696</v>
       </c>
       <c r="B156" t="n">
-        <v>4.2185e-08</v>
+        <v>0.0001320101</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.02685952186584</v>
+        <v>15.0088586807251</v>
       </c>
       <c r="B157" t="n">
-        <v>4.31425e-08</v>
+        <v>0.0001319765</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.13186526298523</v>
+        <v>15.11786484718323</v>
       </c>
       <c r="B158" t="n">
-        <v>4.197185e-08</v>
+        <v>0.000132003</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.20486974716187</v>
+        <v>15.22387099266052</v>
       </c>
       <c r="B159" t="n">
-        <v>4.297904e-08</v>
+        <v>0.0001319799</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.31187582015991</v>
+        <v>15.33387732505798</v>
       </c>
       <c r="B160" t="n">
-        <v>4.33076e-08</v>
+        <v>0.0001319258</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.40388107299805</v>
+        <v>15.42388224601746</v>
       </c>
       <c r="B161" t="n">
-        <v>4.179318e-08</v>
+        <v>0.0001318757</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.50788688659668</v>
+        <v>15.51388764381409</v>
       </c>
       <c r="B162" t="n">
-        <v>4.29204e-08</v>
+        <v>0.0001319118</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.60689258575439</v>
+        <v>15.61589336395264</v>
       </c>
       <c r="B163" t="n">
-        <v>4.175554e-08</v>
+        <v>0.0001318657</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.70689845085144</v>
+        <v>15.72489976882935</v>
       </c>
       <c r="B164" t="n">
-        <v>4.173434e-08</v>
+        <v>0.0001318695</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.81590461730957</v>
+        <v>15.80590415000916</v>
       </c>
       <c r="B165" t="n">
-        <v>4.305705e-08</v>
+        <v>0.0001318871</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.90590977668762</v>
+        <v>15.90991020202637</v>
       </c>
       <c r="B166" t="n">
-        <v>4.21445e-08</v>
+        <v>0.0001318092</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.00491547584534</v>
+        <v>16.0019154548645</v>
       </c>
       <c r="B167" t="n">
-        <v>4.306612e-08</v>
+        <v>0.0001318158</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.1149218082428</v>
+        <v>16.11592197418213</v>
       </c>
       <c r="B168" t="n">
-        <v>4.175746e-08</v>
+        <v>0.0001317584</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.2059268951416</v>
+        <v>16.20792746543884</v>
       </c>
       <c r="B169" t="n">
-        <v>4.300671e-08</v>
+        <v>0.00013173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.31093263626099</v>
+        <v>16.30793309211731</v>
       </c>
       <c r="B170" t="n">
-        <v>4.31897e-08</v>
+        <v>0.0001317278</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.41693902015686</v>
+        <v>16.41793942451477</v>
       </c>
       <c r="B171" t="n">
-        <v>4.281676e-08</v>
+        <v>0.0001317609</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.50794410705566</v>
+        <v>16.50994443893433</v>
       </c>
       <c r="B172" t="n">
-        <v>4.285241e-08</v>
+        <v>0.0001317613</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.60594964027405</v>
+        <v>16.60295009613037</v>
       </c>
       <c r="B173" t="n">
-        <v>4.282079e-08</v>
+        <v>0.0001316913</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.70295524597168</v>
+        <v>16.71195602416992</v>
       </c>
       <c r="B174" t="n">
-        <v>4.304037e-08</v>
+        <v>0.0001317288</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.80896139144897</v>
+        <v>16.80596160888672</v>
       </c>
       <c r="B175" t="n">
-        <v>4.270172e-08</v>
+        <v>0.0001316233</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.90996718406677</v>
+        <v>16.90496706962585</v>
       </c>
       <c r="B176" t="n">
-        <v>4.220013e-08</v>
+        <v>0.0001316554</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.01497316360474</v>
+        <v>17.0119731426239</v>
       </c>
       <c r="B177" t="n">
-        <v>4.167928e-08</v>
+        <v>0.0001316682</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.10597848892212</v>
+        <v>17.1009783744812</v>
       </c>
       <c r="B178" t="n">
-        <v>4.289119e-08</v>
+        <v>0.0001316184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.20598411560059</v>
+        <v>17.20798444747925</v>
       </c>
       <c r="B179" t="n">
-        <v>4.29063e-08</v>
+        <v>0.0001316425</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.3099901676178</v>
+        <v>17.31299066543579</v>
       </c>
       <c r="B180" t="n">
-        <v>4.178291e-08</v>
+        <v>0.0001316068</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.42499661445618</v>
+        <v>17.40999579429626</v>
       </c>
       <c r="B181" t="n">
-        <v>4.290426e-08</v>
+        <v>0.0001315549</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.53100252151489</v>
+        <v>17.50700163841248</v>
       </c>
       <c r="B182" t="n">
-        <v>4.310312e-08</v>
+        <v>0.0001314896</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.60200691223145</v>
+        <v>17.61400771141052</v>
       </c>
       <c r="B183" t="n">
-        <v>4.29942e-08</v>
+        <v>0.0001315395</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.71301293373108</v>
+        <v>17.70301270484924</v>
       </c>
       <c r="B184" t="n">
-        <v>4.295432e-08</v>
+        <v>0.0001315361</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.82301926612854</v>
+        <v>17.80301856994629</v>
       </c>
       <c r="B185" t="n">
-        <v>4.285743e-08</v>
+        <v>0.0001315531</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.92502498626709</v>
+        <v>17.902024269104</v>
       </c>
       <c r="B186" t="n">
-        <v>4.287012e-08</v>
+        <v>0.0001315518</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.03503155708313</v>
+        <v>18.00703024864197</v>
       </c>
       <c r="B187" t="n">
-        <v>4.298262e-08</v>
+        <v>0.0001316319</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.13303709030151</v>
+        <v>18.10803604125977</v>
       </c>
       <c r="B188" t="n">
-        <v>4.288227e-08</v>
+        <v>0.0001315341</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.22904253005981</v>
+        <v>18.21104192733765</v>
       </c>
       <c r="B189" t="n">
-        <v>4.167142e-08</v>
+        <v>0.0001315669</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.33704876899719</v>
+        <v>18.31104755401611</v>
       </c>
       <c r="B190" t="n">
-        <v>4.31572e-08</v>
+        <v>0.0001314794</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.40705275535583</v>
+        <v>18.40505290031433</v>
       </c>
       <c r="B191" t="n">
-        <v>4.206961e-08</v>
+        <v>0.0001314569</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.50905847549438</v>
+        <v>18.51305913925171</v>
       </c>
       <c r="B192" t="n">
-        <v>4.298177e-08</v>
+        <v>0.0001314119</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.61406469345093</v>
+        <v>18.60706448554993</v>
       </c>
       <c r="B193" t="n">
-        <v>4.282198e-08</v>
+        <v>0.0001312827</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.71507048606873</v>
+        <v>18.70607018470764</v>
       </c>
       <c r="B194" t="n">
-        <v>4.149019e-08</v>
+        <v>0.0001311158</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.81907629966736</v>
+        <v>18.80607604980469</v>
       </c>
       <c r="B195" t="n">
-        <v>4.288928e-08</v>
+        <v>0.0001314541</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.90008091926575</v>
+        <v>18.90908169746399</v>
       </c>
       <c r="B196" t="n">
-        <v>4.28694e-08</v>
+        <v>0.0001314504</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.01508760452271</v>
+        <v>19.00908756256104</v>
       </c>
       <c r="B197" t="n">
-        <v>4.222791e-08</v>
+        <v>0.0001313798</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.12009334564209</v>
+        <v>19.114093542099</v>
       </c>
       <c r="B198" t="n">
-        <v>4.248665e-08</v>
+        <v>0.0001313635</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.20109820365906</v>
+        <v>19.20409870147705</v>
       </c>
       <c r="B199" t="n">
-        <v>4.142142e-08</v>
+        <v>0.0001315568</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.31510472297668</v>
+        <v>19.30710458755493</v>
       </c>
       <c r="B200" t="n">
-        <v>4.202268e-08</v>
+        <v>0.0001313191</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.42011094093323</v>
+        <v>19.41311073303223</v>
       </c>
       <c r="B201" t="n">
-        <v>4.249679e-08</v>
+        <v>0.0001312688</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.50111532211304</v>
+        <v>19.50211572647095</v>
       </c>
       <c r="B202" t="n">
-        <v>4.134489e-08</v>
+        <v>0.0001313109</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.60012102127075</v>
+        <v>19.60112142562866</v>
       </c>
       <c r="B203" t="n">
-        <v>4.282838e-08</v>
+        <v>0.0001313511</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.70012664794922</v>
+        <v>19.70112705230713</v>
       </c>
       <c r="B204" t="n">
-        <v>4.279421e-08</v>
+        <v>0.0001313503</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.80613279342651</v>
+        <v>19.80413293838501</v>
       </c>
       <c r="B205" t="n">
-        <v>4.272973e-08</v>
+        <v>0.0001313795</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.90313839912415</v>
+        <v>19.90313863754272</v>
       </c>
       <c r="B206" t="n">
-        <v>4.291924e-08</v>
+        <v>0.0001313413</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20.00814437866211</v>
+        <v>20.01214504241943</v>
       </c>
       <c r="B207" t="n">
-        <v>4.290326e-08</v>
+        <v>0.0001313612</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.11315035820007</v>
+        <v>20.10214996337891</v>
       </c>
       <c r="B208" t="n">
-        <v>4.245814e-08</v>
+        <v>0.0001313032</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.20215559005737</v>
+        <v>20.2031557559967</v>
       </c>
       <c r="B209" t="n">
-        <v>4.291224e-08</v>
+        <v>0.000131305</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.30416131019592</v>
+        <v>20.31116199493408</v>
       </c>
       <c r="B210" t="n">
-        <v>4.245738e-08</v>
+        <v>0.0001313799</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.40916728973389</v>
+        <v>20.4101676940918</v>
       </c>
       <c r="B211" t="n">
-        <v>4.205962e-08</v>
+        <v>0.0001313462</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.50117254257202</v>
+        <v>20.50017285346985</v>
       </c>
       <c r="B212" t="n">
-        <v>4.206513e-08</v>
+        <v>0.0001313261</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.6041784286499</v>
+        <v>20.60417890548706</v>
       </c>
       <c r="B213" t="n">
-        <v>4.180512e-08</v>
+        <v>0.0001313471</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.71118474006653</v>
+        <v>20.70718455314636</v>
       </c>
       <c r="B214" t="n">
-        <v>4.280665e-08</v>
+        <v>0.0001313409</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.80218982696533</v>
+        <v>20.80819034576416</v>
       </c>
       <c r="B215" t="n">
-        <v>4.281481e-08</v>
+        <v>0.0001313266</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.91719627380371</v>
+        <v>20.91319632530212</v>
       </c>
       <c r="B216" t="n">
-        <v>4.280175e-08</v>
+        <v>0.0001313814</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.00920176506042</v>
+        <v>21.009202003479</v>
       </c>
       <c r="B217" t="n">
-        <v>4.159429e-08</v>
+        <v>0.0001313371</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.10820746421814</v>
+        <v>21.11020755767822</v>
       </c>
       <c r="B218" t="n">
-        <v>4.29552e-08</v>
+        <v>0.0001313643</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.21821355819702</v>
+        <v>21.21621370315552</v>
       </c>
       <c r="B219" t="n">
-        <v>4.14523e-08</v>
+        <v>0.0001313258</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.30021834373474</v>
+        <v>21.30621886253357</v>
       </c>
       <c r="B220" t="n">
-        <v>4.280398e-08</v>
+        <v>0.0001313498</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.41622471809387</v>
+        <v>21.40922474861145</v>
       </c>
       <c r="B221" t="n">
-        <v>4.286503e-08</v>
+        <v>0.0001314267</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.51523041725159</v>
+        <v>21.51523089408875</v>
       </c>
       <c r="B222" t="n">
-        <v>4.28467e-08</v>
+        <v>0.00013141</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.60823583602905</v>
+        <v>21.60723614692688</v>
       </c>
       <c r="B223" t="n">
-        <v>4.285961e-08</v>
+        <v>0.0001313975</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.70724153518677</v>
+        <v>21.70224142074585</v>
       </c>
       <c r="B224" t="n">
-        <v>4.216846e-08</v>
+        <v>0.0001314246</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.81824803352356</v>
+        <v>21.8022472858429</v>
       </c>
       <c r="B225" t="n">
-        <v>4.192081e-08</v>
+        <v>0.0001312046</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.9002525806427</v>
+        <v>21.90725302696228</v>
       </c>
       <c r="B226" t="n">
-        <v>4.28661e-08</v>
+        <v>0.0001314134</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.01625943183899</v>
+        <v>22.00825881958008</v>
       </c>
       <c r="B227" t="n">
-        <v>4.27917e-08</v>
+        <v>0.0001313814</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.12126517295837</v>
+        <v>22.11426520347595</v>
       </c>
       <c r="B228" t="n">
-        <v>4.234348e-08</v>
+        <v>0.0001316599</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.20326995849609</v>
+        <v>22.20427012443542</v>
       </c>
       <c r="B229" t="n">
-        <v>4.268954e-08</v>
+        <v>0.0001316196</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.31227612495422</v>
+        <v>22.30827617645264</v>
       </c>
       <c r="B230" t="n">
-        <v>4.151127e-08</v>
+        <v>0.0001315517</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.41928219795227</v>
+        <v>22.41428208351135</v>
       </c>
       <c r="B231" t="n">
-        <v>4.281711e-08</v>
+        <v>0.0001314522</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.50028681755066</v>
+        <v>22.50528764724731</v>
       </c>
       <c r="B232" t="n">
-        <v>4.23736e-08</v>
+        <v>0.0001315084</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.60829305648804</v>
+        <v>22.60129284858704</v>
       </c>
       <c r="B233" t="n">
-        <v>4.277644e-08</v>
+        <v>0.0001315465</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.713299036026</v>
+        <v>22.70829916000366</v>
       </c>
       <c r="B234" t="n">
-        <v>4.285857e-08</v>
+        <v>0.0001315956</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.80730438232422</v>
+        <v>22.81730508804321</v>
       </c>
       <c r="B235" t="n">
-        <v>4.149391e-08</v>
+        <v>0.0001316228</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.90631008148193</v>
+        <v>22.92131114006042</v>
       </c>
       <c r="B236" t="n">
-        <v>4.176126e-08</v>
+        <v>0.0001316991</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.01531624794006</v>
+        <v>23.01631689071655</v>
       </c>
       <c r="B237" t="n">
-        <v>4.128417e-08</v>
+        <v>0.0001316833</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.10532140731812</v>
+        <v>23.1003212928772</v>
       </c>
       <c r="B238" t="n">
-        <v>4.274971e-08</v>
+        <v>0.0001317135</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.20532727241516</v>
+        <v>23.20332741737366</v>
       </c>
       <c r="B239" t="n">
-        <v>4.277782e-08</v>
+        <v>0.0001317392</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.31433343887329</v>
+        <v>23.30933332443237</v>
       </c>
       <c r="B240" t="n">
-        <v>4.26376e-08</v>
+        <v>0.0001316997</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.40533852577209</v>
+        <v>23.41733956336975</v>
       </c>
       <c r="B241" t="n">
-        <v>4.258986e-08</v>
+        <v>0.000131779</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.50434422492981</v>
+        <v>23.52234554290771</v>
       </c>
       <c r="B242" t="n">
-        <v>4.191968e-08</v>
+        <v>0.0001317321</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.61335062980652</v>
+        <v>23.61735105514526</v>
       </c>
       <c r="B243" t="n">
-        <v>4.263446e-08</v>
+        <v>0.0001317156</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.70735597610474</v>
+        <v>23.7043559551239</v>
       </c>
       <c r="B244" t="n">
-        <v>4.267579e-08</v>
+        <v>0.0001317883</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>23.8053617477417</v>
+        <v>23.80436182022095</v>
       </c>
       <c r="B245" t="n">
-        <v>4.263605e-08</v>
+        <v>0.000131771</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>23.90336728096008</v>
+        <v>23.90936803817749</v>
       </c>
       <c r="B246" t="n">
-        <v>4.274293e-08</v>
+        <v>0.0001317711</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.00637316703796</v>
+        <v>24.01437377929688</v>
       </c>
       <c r="B247" t="n">
-        <v>4.145268e-08</v>
+        <v>0.0001318707</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.10637879371643</v>
+        <v>24.12037968635559</v>
       </c>
       <c r="B248" t="n">
-        <v>4.19139e-08</v>
+        <v>0.000131869</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.21438479423523</v>
+        <v>24.20738458633423</v>
       </c>
       <c r="B249" t="n">
-        <v>4.12934e-08</v>
+        <v>0.0001317953</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.30339002609253</v>
+        <v>24.30939078330994</v>
       </c>
       <c r="B250" t="n">
-        <v>4.24716e-08</v>
+        <v>0.0001318117</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.41339612007141</v>
+        <v>24.40839648246765</v>
       </c>
       <c r="B251" t="n">
-        <v>4.077338e-08</v>
+        <v>0.000131812</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>24.5174024105072</v>
+        <v>24.50840210914612</v>
       </c>
       <c r="B252" t="n">
-        <v>3.997985e-08</v>
+        <v>0.0001318185</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.60940742492676</v>
+        <v>24.61740827560425</v>
       </c>
       <c r="B253" t="n">
-        <v>3.946327e-08</v>
+        <v>0.0001317795</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.70541310310364</v>
+        <v>24.72141432762146</v>
       </c>
       <c r="B254" t="n">
-        <v>4.146187e-08</v>
+        <v>0.0001318452</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.81141924858093</v>
+        <v>24.81341934204102</v>
       </c>
       <c r="B255" t="n">
-        <v>4.227989e-08</v>
+        <v>0.000131757</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24.91642498970032</v>
+        <v>24.90842485427856</v>
       </c>
       <c r="B256" t="n">
-        <v>4.258002e-08</v>
+        <v>0.0001317637</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.02243113517761</v>
+        <v>25.00743055343628</v>
       </c>
       <c r="B257" t="n">
-        <v>4.261523e-08</v>
+        <v>0.0001318679</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.12743711471558</v>
+        <v>25.11243653297424</v>
       </c>
       <c r="B258" t="n">
-        <v>4.253537e-08</v>
+        <v>0.0001318491</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>25.23444318771362</v>
+        <v>25.20444178581238</v>
       </c>
       <c r="B259" t="n">
-        <v>4.155484e-08</v>
+        <v>0.0001318967</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.32344841957092</v>
+        <v>25.30744767189026</v>
       </c>
       <c r="B260" t="n">
-        <v>4.148727e-08</v>
+        <v>0.0001319262</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25.42545413970947</v>
+        <v>25.41045355796814</v>
       </c>
       <c r="B261" t="n">
-        <v>4.200334e-08</v>
+        <v>0.0001318432</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.53346014022827</v>
+        <v>25.50545907020569</v>
       </c>
       <c r="B262" t="n">
-        <v>4.255136e-08</v>
+        <v>0.000131912</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.62746572494507</v>
+        <v>25.60346484184265</v>
       </c>
       <c r="B263" t="n">
-        <v>4.247912e-08</v>
+        <v>0.0001319349</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.70847034454346</v>
+        <v>25.71147060394287</v>
       </c>
       <c r="B264" t="n">
-        <v>4.249642e-08</v>
+        <v>0.0001319872</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25.8084762096405</v>
+        <v>25.80747628211975</v>
       </c>
       <c r="B265" t="n">
-        <v>4.254055e-08</v>
+        <v>0.0001320312</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.90948176383972</v>
+        <v>25.90548181533813</v>
       </c>
       <c r="B266" t="n">
-        <v>4.112231e-08</v>
+        <v>0.0001320302</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.01548790931702</v>
+        <v>26.01248812675476</v>
       </c>
       <c r="B267" t="n">
-        <v>4.217809e-08</v>
+        <v>0.0001320376</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>26.1064932346344</v>
+        <v>26.10349321365356</v>
       </c>
       <c r="B268" t="n">
-        <v>4.106698e-08</v>
+        <v>0.0001320154</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.20549893379211</v>
+        <v>26.20249891281128</v>
       </c>
       <c r="B269" t="n">
-        <v>4.259731e-08</v>
+        <v>0.0001319496</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.31450486183167</v>
+        <v>26.31050515174866</v>
       </c>
       <c r="B270" t="n">
-        <v>4.243229e-08</v>
+        <v>0.000132023</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.40651035308838</v>
+        <v>26.40551042556763</v>
       </c>
       <c r="B271" t="n">
-        <v>4.176346e-08</v>
+        <v>0.0001320157</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.50451588630676</v>
+        <v>26.50351595878601</v>
       </c>
       <c r="B272" t="n">
-        <v>4.24878e-08</v>
+        <v>0.0001320744</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.6145224571228</v>
+        <v>26.61152243614197</v>
       </c>
       <c r="B273" t="n">
-        <v>4.234888e-08</v>
+        <v>0.0001320324</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.71052765846252</v>
+        <v>26.70552778244019</v>
       </c>
       <c r="B274" t="n">
-        <v>4.246968e-08</v>
+        <v>0.0001320765</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.80953335762024</v>
+        <v>26.80353331565857</v>
       </c>
       <c r="B275" t="n">
-        <v>4.112816e-08</v>
+        <v>0.0001321103</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.91053938865662</v>
+        <v>26.91153955459595</v>
       </c>
       <c r="B276" t="n">
-        <v>4.173499e-08</v>
+        <v>0.0001321156</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>27.01254510879517</v>
+        <v>27.01054501533508</v>
       </c>
       <c r="B277" t="n">
-        <v>4.117463e-08</v>
+        <v>0.0001321523</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.10355019569397</v>
+        <v>27.10055017471313</v>
       </c>
       <c r="B278" t="n">
-        <v>4.249203e-08</v>
+        <v>0.0001320985</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.21355652809143</v>
+        <v>27.20955657958984</v>
       </c>
       <c r="B279" t="n">
-        <v>4.230069e-08</v>
+        <v>0.0001321803</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.30856204032898</v>
+        <v>27.31056237220764</v>
       </c>
       <c r="B280" t="n">
-        <v>4.246402e-08</v>
+        <v>0.0001321103</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.40656733512878</v>
+        <v>27.40056753158569</v>
       </c>
       <c r="B281" t="n">
-        <v>4.18028e-08</v>
+        <v>0.0001321396</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.51457357406616</v>
+        <v>27.50557351112366</v>
       </c>
       <c r="B282" t="n">
-        <v>4.151181e-08</v>
+        <v>0.0001321239</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.60657906532288</v>
+        <v>27.60457921028137</v>
       </c>
       <c r="B283" t="n">
-        <v>4.121799e-08</v>
+        <v>0.0001321491</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.70658469200134</v>
+        <v>27.71058511734009</v>
       </c>
       <c r="B284" t="n">
-        <v>4.208621e-08</v>
+        <v>0.0001321355</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27.80959057807922</v>
+        <v>27.81259107589722</v>
       </c>
       <c r="B285" t="n">
-        <v>4.179638e-08</v>
+        <v>0.0001321674</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27.90859627723694</v>
+        <v>27.90059614181519</v>
       </c>
       <c r="B286" t="n">
-        <v>4.209598e-08</v>
+        <v>0.0001321378</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.00760197639465</v>
+        <v>28.00360178947449</v>
       </c>
       <c r="B287" t="n">
-        <v>4.247209e-08</v>
+        <v>0.000132178</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.1146080493927</v>
+        <v>28.10860776901245</v>
       </c>
       <c r="B288" t="n">
-        <v>4.105229e-08</v>
+        <v>0.0001321954</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.20261311531067</v>
+        <v>28.21461415290833</v>
       </c>
       <c r="B289" t="n">
-        <v>4.268806e-08</v>
+        <v>0.0001321678</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.30761909484863</v>
+        <v>28.32062005996704</v>
       </c>
       <c r="B290" t="n">
-        <v>4.252139e-08</v>
+        <v>0.0001321179</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.4146249294281</v>
+        <v>28.42462611198425</v>
       </c>
       <c r="B291" t="n">
-        <v>4.219414e-08</v>
+        <v>0.0001321624</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28.50263023376465</v>
+        <v>28.53063201904297</v>
       </c>
       <c r="B292" t="n">
-        <v>4.267799e-08</v>
+        <v>0.0001321444</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.60763621330261</v>
+        <v>28.6346378326416</v>
       </c>
       <c r="B293" t="n">
-        <v>4.255547e-08</v>
+        <v>0.0001320851</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.71464252471924</v>
+        <v>28.74164414405823</v>
       </c>
       <c r="B294" t="n">
-        <v>4.107437e-08</v>
+        <v>0.0001320679</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28.80464744567871</v>
+        <v>28.84064984321594</v>
       </c>
       <c r="B295" t="n">
-        <v>4.243393e-08</v>
+        <v>0.000132141</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28.90465307235718</v>
+        <v>28.92765474319458</v>
       </c>
       <c r="B296" t="n">
-        <v>4.240375e-08</v>
+        <v>0.0001321369</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.00365877151489</v>
+        <v>29.00465941429138</v>
       </c>
       <c r="B297" t="n">
-        <v>4.265556e-08</v>
+        <v>0.0001320988</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.10566473007202</v>
+        <v>29.10966515541077</v>
       </c>
       <c r="B298" t="n">
-        <v>4.232244e-08</v>
+        <v>0.0001321655</v>
       </c>
     </row>
     <row r="299">
@@ -2817,871 +2817,871 @@
         <v>29.20067024230957</v>
       </c>
       <c r="B299" t="n">
-        <v>4.254683e-08</v>
+        <v>0.0001321708</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.30567598342896</v>
+        <v>29.30867671966553</v>
       </c>
       <c r="B300" t="n">
-        <v>4.251939e-08</v>
+        <v>0.0001320785</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29.40968227386475</v>
+        <v>29.42868328094482</v>
       </c>
       <c r="B301" t="n">
-        <v>4.15995e-08</v>
+        <v>0.0001321516</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>29.50868797302246</v>
+        <v>29.53168940544128</v>
       </c>
       <c r="B302" t="n">
-        <v>4.263757e-08</v>
+        <v>0.0001321754</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.61369371414185</v>
+        <v>29.63869547843933</v>
       </c>
       <c r="B303" t="n">
-        <v>4.249359e-08</v>
+        <v>0.0001320773</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.71069931983948</v>
+        <v>29.74470162391663</v>
       </c>
       <c r="B304" t="n">
-        <v>4.249514e-08</v>
+        <v>0.0001321515</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>29.80170440673828</v>
+        <v>29.85170745849609</v>
       </c>
       <c r="B305" t="n">
-        <v>4.119479e-08</v>
+        <v>0.000132131</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>29.90871071815491</v>
+        <v>29.94771313667297</v>
       </c>
       <c r="B306" t="n">
-        <v>4.132708e-08</v>
+        <v>0.0001321214</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.0217170715332</v>
+        <v>30.01571702957153</v>
       </c>
       <c r="B307" t="n">
-        <v>4.262256e-08</v>
+        <v>0.0001321733</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.12672305107117</v>
+        <v>30.12272310256958</v>
       </c>
       <c r="B308" t="n">
-        <v>4.184492e-08</v>
+        <v>0.0001320687</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.20572781562805</v>
+        <v>30.20272779464722</v>
       </c>
       <c r="B309" t="n">
-        <v>4.247114e-08</v>
+        <v>0.0001320783</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.30873346328735</v>
+        <v>30.30873370170593</v>
       </c>
       <c r="B310" t="n">
-        <v>4.251889e-08</v>
+        <v>0.0001321108</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.40773916244507</v>
+        <v>30.40373921394348</v>
       </c>
       <c r="B311" t="n">
-        <v>4.265764e-08</v>
+        <v>0.0001321106</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.51074504852295</v>
+        <v>30.51174545288086</v>
       </c>
       <c r="B312" t="n">
-        <v>4.245999e-08</v>
+        <v>0.000132111</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.62175154685974</v>
+        <v>30.60575079917908</v>
       </c>
       <c r="B313" t="n">
-        <v>4.264253e-08</v>
+        <v>0.0001321513</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.72575736045837</v>
+        <v>30.70475625991821</v>
       </c>
       <c r="B314" t="n">
-        <v>4.199579e-08</v>
+        <v>0.0001321162</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.80476188659668</v>
+        <v>30.81276249885559</v>
       </c>
       <c r="B315" t="n">
-        <v>4.247108e-08</v>
+        <v>0.0001320873</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>30.90776777267456</v>
+        <v>30.90276765823364</v>
       </c>
       <c r="B316" t="n">
-        <v>4.256302e-08</v>
+        <v>0.0001321205</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.00777339935303</v>
+        <v>31.00877380371094</v>
       </c>
       <c r="B317" t="n">
-        <v>4.250592e-08</v>
+        <v>0.000132138</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.11177945137024</v>
+        <v>31.1137797832489</v>
       </c>
       <c r="B318" t="n">
-        <v>4.104741e-08</v>
+        <v>0.0001320893</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.21078515052795</v>
+        <v>31.20378518104553</v>
       </c>
       <c r="B319" t="n">
-        <v>4.251765e-08</v>
+        <v>0.0001320621</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.30079030990601</v>
+        <v>31.30179047584534</v>
       </c>
       <c r="B320" t="n">
-        <v>4.138945e-08</v>
+        <v>0.0001321351</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.4017961025238</v>
+        <v>31.40279650688171</v>
       </c>
       <c r="B321" t="n">
-        <v>4.248274e-08</v>
+        <v>0.0001321207</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.50480198860168</v>
+        <v>31.50480222702026</v>
       </c>
       <c r="B322" t="n">
-        <v>4.103704e-08</v>
+        <v>0.0001321182</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.60680770874023</v>
+        <v>31.60380792617798</v>
       </c>
       <c r="B323" t="n">
-        <v>4.135133e-08</v>
+        <v>0.0001321135</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.71481394767761</v>
+        <v>31.71281409263611</v>
       </c>
       <c r="B324" t="n">
-        <v>4.121282e-08</v>
+        <v>0.0001321273</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.8008189201355</v>
+        <v>31.80281925201416</v>
       </c>
       <c r="B325" t="n">
-        <v>4.253732e-08</v>
+        <v>0.0001319847</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>31.90282464027405</v>
+        <v>31.90282511711121</v>
       </c>
       <c r="B326" t="n">
-        <v>4.265877e-08</v>
+        <v>0.0001321268</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.01383113861084</v>
+        <v>32.00083065032959</v>
       </c>
       <c r="B327" t="n">
-        <v>4.246392e-08</v>
+        <v>0.0001320749</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>32.10383605957031</v>
+        <v>32.10383653640747</v>
       </c>
       <c r="B328" t="n">
-        <v>4.125917e-08</v>
+        <v>0.000132109</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.20384168624878</v>
+        <v>32.20284223556519</v>
       </c>
       <c r="B329" t="n">
-        <v>4.162191e-08</v>
+        <v>0.0001320454</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.30284738540649</v>
+        <v>32.3138484954834</v>
       </c>
       <c r="B330" t="n">
-        <v>4.270299e-08</v>
+        <v>0.0001320555</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.40585350990295</v>
+        <v>32.40285348892212</v>
       </c>
       <c r="B331" t="n">
-        <v>4.176142e-08</v>
+        <v>0.0001319754</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.50585913658142</v>
+        <v>32.50685930252075</v>
       </c>
       <c r="B332" t="n">
-        <v>4.259576e-08</v>
+        <v>0.0001319841</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.61486530303955</v>
+        <v>32.61186552047729</v>
       </c>
       <c r="B333" t="n">
-        <v>4.106506e-08</v>
+        <v>0.000132095</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.7028706073761</v>
+        <v>32.70687079429626</v>
       </c>
       <c r="B334" t="n">
-        <v>4.272315e-08</v>
+        <v>0.0001320944</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.80087614059448</v>
+        <v>32.80587649345398</v>
       </c>
       <c r="B335" t="n">
-        <v>4.227678e-08</v>
+        <v>0.0001319928</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.90088176727295</v>
+        <v>32.91388273239136</v>
       </c>
       <c r="B336" t="n">
-        <v>4.124063e-08</v>
+        <v>0.0001319963</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.00388765335083</v>
+        <v>33.00988841056824</v>
       </c>
       <c r="B337" t="n">
-        <v>4.124406e-08</v>
+        <v>0.0001319449</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>33.10289335250854</v>
+        <v>33.10789394378662</v>
       </c>
       <c r="B338" t="n">
-        <v>4.271404e-08</v>
+        <v>0.000131993</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.21389961242676</v>
+        <v>33.2108998298645</v>
       </c>
       <c r="B339" t="n">
-        <v>4.253936e-08</v>
+        <v>0.0001320183</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.31090545654297</v>
+        <v>33.31590580940247</v>
       </c>
       <c r="B340" t="n">
-        <v>4.262622e-08</v>
+        <v>0.0001320184</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.40991067886353</v>
+        <v>33.42291188240051</v>
       </c>
       <c r="B341" t="n">
-        <v>4.177579e-08</v>
+        <v>0.0001319691</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.51291680335999</v>
+        <v>33.52291750907898</v>
       </c>
       <c r="B342" t="n">
-        <v>4.211958e-08</v>
+        <v>0.0001319856</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.61092233657837</v>
+        <v>33.63092398643494</v>
       </c>
       <c r="B343" t="n">
-        <v>4.253188e-08</v>
+        <v>0.0001319807</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.70992803573608</v>
+        <v>33.73592972755432</v>
       </c>
       <c r="B344" t="n">
-        <v>4.247642e-08</v>
+        <v>0.00013197</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.81293392181396</v>
+        <v>33.84293603897095</v>
       </c>
       <c r="B345" t="n">
-        <v>4.131362e-08</v>
+        <v>0.0001319051</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.90893959999084</v>
+        <v>33.93594121932983</v>
       </c>
       <c r="B346" t="n">
-        <v>4.261568e-08</v>
+        <v>0.0001319618</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.00494480133057</v>
+        <v>34.00494527816772</v>
       </c>
       <c r="B347" t="n">
-        <v>4.249536e-08</v>
+        <v>0.0001318998</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.11495113372803</v>
+        <v>34.11095118522644</v>
       </c>
       <c r="B348" t="n">
-        <v>4.093955e-08</v>
+        <v>0.0001319219</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>34.20895671844482</v>
+        <v>34.20395660400391</v>
       </c>
       <c r="B349" t="n">
-        <v>4.263769e-08</v>
+        <v>0.0001319006</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30796241760254</v>
+        <v>34.30296230316162</v>
       </c>
       <c r="B350" t="n">
-        <v>4.260535e-08</v>
+        <v>0.0001319821</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.41596841812134</v>
+        <v>34.40496802330017</v>
       </c>
       <c r="B351" t="n">
-        <v>4.210153e-08</v>
+        <v>0.0001319549</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.50497364997864</v>
+        <v>34.50797390937805</v>
       </c>
       <c r="B352" t="n">
-        <v>4.270817e-08</v>
+        <v>0.0001319319</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.60897946357727</v>
+        <v>34.6029794216156</v>
       </c>
       <c r="B353" t="n">
-        <v>4.234235e-08</v>
+        <v>0.0001320055</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.70698499679565</v>
+        <v>34.70498514175415</v>
       </c>
       <c r="B354" t="n">
-        <v>4.127474e-08</v>
+        <v>0.0001320053</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>34.81299114227295</v>
+        <v>34.80799126625061</v>
       </c>
       <c r="B355" t="n">
-        <v>4.231741e-08</v>
+        <v>0.0001320107</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.90699648857117</v>
+        <v>34.90699696540833</v>
       </c>
       <c r="B356" t="n">
-        <v>4.123661e-08</v>
+        <v>0.0001319121</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.01500272750854</v>
+        <v>35.00600266456604</v>
       </c>
       <c r="B357" t="n">
-        <v>4.216764e-08</v>
+        <v>0.0001320207</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.10600781440735</v>
+        <v>35.10800838470459</v>
       </c>
       <c r="B358" t="n">
-        <v>4.244056e-08</v>
+        <v>0.0001320022</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.20701360702515</v>
+        <v>35.2070140838623</v>
       </c>
       <c r="B359" t="n">
-        <v>4.158326e-08</v>
+        <v>0.0001319295</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.31602001190186</v>
+        <v>35.31101989746094</v>
       </c>
       <c r="B360" t="n">
-        <v>4.228654e-08</v>
+        <v>0.000131854</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.40702509880066</v>
+        <v>35.41202569007874</v>
       </c>
       <c r="B361" t="n">
-        <v>4.115316e-08</v>
+        <v>0.000131858</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.50903081893921</v>
+        <v>35.50603127479553</v>
       </c>
       <c r="B362" t="n">
-        <v>4.227307e-08</v>
+        <v>0.0001318248</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.60803651809692</v>
+        <v>35.613037109375</v>
       </c>
       <c r="B363" t="n">
-        <v>4.242866e-08</v>
+        <v>0.000131887</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.71104264259338</v>
+        <v>35.70304250717163</v>
       </c>
       <c r="B364" t="n">
-        <v>4.232774e-08</v>
+        <v>0.0001318349</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.80904817581177</v>
+        <v>35.81204843521118</v>
       </c>
       <c r="B365" t="n">
-        <v>4.119299e-08</v>
+        <v>0.000131834</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.90405344963074</v>
+        <v>35.91505455970764</v>
       </c>
       <c r="B366" t="n">
-        <v>4.160787e-08</v>
+        <v>0.0001318569</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.00805950164795</v>
+        <v>36.00405955314636</v>
       </c>
       <c r="B367" t="n">
-        <v>4.242564e-08</v>
+        <v>0.0001318001</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.108065366745</v>
+        <v>36.10706543922424</v>
       </c>
       <c r="B368" t="n">
-        <v>4.239552e-08</v>
+        <v>0.0001318013</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>36.21207118034363</v>
+        <v>36.21407151222229</v>
       </c>
       <c r="B369" t="n">
-        <v>4.195367e-08</v>
+        <v>0.0001318026</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.32907772064209</v>
+        <v>36.30907702445984</v>
       </c>
       <c r="B370" t="n">
-        <v>4.156956e-08</v>
+        <v>0.0001318069</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>36.43108367919922</v>
+        <v>36.4020824432373</v>
       </c>
       <c r="B371" t="n">
-        <v>4.236901e-08</v>
+        <v>0.0001317328</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.50408792495728</v>
+        <v>36.50608825683594</v>
       </c>
       <c r="B372" t="n">
-        <v>4.147713e-08</v>
+        <v>0.0001317497</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>36.60809397697449</v>
+        <v>36.60909390449524</v>
       </c>
       <c r="B373" t="n">
-        <v>4.245786e-08</v>
+        <v>0.0001317444</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.70309925079346</v>
+        <v>36.70809960365295</v>
       </c>
       <c r="B374" t="n">
-        <v>4.256269e-08</v>
+        <v>0.0001317526</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.81510543823242</v>
+        <v>36.81010580062866</v>
       </c>
       <c r="B375" t="n">
-        <v>4.135379e-08</v>
+        <v>0.0001317058</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>36.90211081504822</v>
+        <v>36.91611170768738</v>
       </c>
       <c r="B376" t="n">
-        <v>4.253534e-08</v>
+        <v>0.0001316761</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.00911664962769</v>
+        <v>37.02411794662476</v>
       </c>
       <c r="B377" t="n">
-        <v>4.136207e-08</v>
+        <v>0.0001317429</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.11712312698364</v>
+        <v>37.10912275314331</v>
       </c>
       <c r="B378" t="n">
-        <v>4.246762e-08</v>
+        <v>0.0001316494</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.20712804794312</v>
+        <v>37.22112941741943</v>
       </c>
       <c r="B379" t="n">
-        <v>4.112399e-08</v>
+        <v>0.0001316947</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.31113386154175</v>
+        <v>37.32413506507874</v>
       </c>
       <c r="B380" t="n">
-        <v>4.235293e-08</v>
+        <v>0.0001317212</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.41714000701904</v>
+        <v>37.40413951873779</v>
       </c>
       <c r="B381" t="n">
-        <v>4.251375e-08</v>
+        <v>0.0001317563</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.50814509391785</v>
+        <v>37.50614547729492</v>
       </c>
       <c r="B382" t="n">
-        <v>4.234217e-08</v>
+        <v>0.0001317486</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>37.6161515712738</v>
+        <v>37.60615134239197</v>
       </c>
       <c r="B383" t="n">
-        <v>4.248957e-08</v>
+        <v>0.0001317904</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.71915721893311</v>
+        <v>37.7051568031311</v>
       </c>
       <c r="B384" t="n">
-        <v>4.263854e-08</v>
+        <v>0.0001317384</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.80116200447083</v>
+        <v>37.80916285514832</v>
       </c>
       <c r="B385" t="n">
-        <v>4.178532e-08</v>
+        <v>0.0001317257</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>37.9141685962677</v>
+        <v>37.90816831588745</v>
       </c>
       <c r="B386" t="n">
-        <v>4.183003e-08</v>
+        <v>0.0001317043</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.00717401504517</v>
+        <v>38.00917410850525</v>
       </c>
       <c r="B387" t="n">
-        <v>4.230106e-08</v>
+        <v>0.0001316311</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.10917973518372</v>
+        <v>38.11618041992188</v>
       </c>
       <c r="B388" t="n">
-        <v>4.24149e-08</v>
+        <v>0.000131636</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>38.20418500900269</v>
+        <v>38.22318649291992</v>
       </c>
       <c r="B389" t="n">
-        <v>4.109125e-08</v>
+        <v>0.0001316212</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.30419063568115</v>
+        <v>38.30919122695923</v>
       </c>
       <c r="B390" t="n">
-        <v>4.118477e-08</v>
+        <v>0.0001316881</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.41119694709778</v>
+        <v>38.41619753837585</v>
       </c>
       <c r="B391" t="n">
-        <v>4.232573e-08</v>
+        <v>0.0001317282</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.50120210647583</v>
+        <v>38.50620269775391</v>
       </c>
       <c r="B392" t="n">
-        <v>4.237058e-08</v>
+        <v>0.0001317444</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.61520862579346</v>
+        <v>38.60920834541321</v>
       </c>
       <c r="B393" t="n">
-        <v>4.193683e-08</v>
+        <v>0.0001316434</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>38.70621395111084</v>
+        <v>38.70721411705017</v>
       </c>
       <c r="B394" t="n">
-        <v>4.247772e-08</v>
+        <v>0.0001317225</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.81021976470947</v>
+        <v>38.80721974372864</v>
       </c>
       <c r="B395" t="n">
-        <v>4.23267e-08</v>
+        <v>0.0001316798</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.90322518348694</v>
+        <v>38.91222596168518</v>
       </c>
       <c r="B396" t="n">
-        <v>4.170438e-08</v>
+        <v>0.0001316872</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.00723099708557</v>
+        <v>39.0012309551239</v>
       </c>
       <c r="B397" t="n">
-        <v>3.995858e-08</v>
+        <v>0.0001316536</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.10823678970337</v>
+        <v>39.1072371006012</v>
       </c>
       <c r="B398" t="n">
-        <v>4.149841e-08</v>
+        <v>0.0001316612</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>39.21024250984192</v>
+        <v>39.20124244689941</v>
       </c>
       <c r="B399" t="n">
-        <v>4.094104e-08</v>
+        <v>0.000131675</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.31924891471863</v>
+        <v>39.30424809455872</v>
       </c>
       <c r="B400" t="n">
-        <v>4.302844e-08</v>
+        <v>0.0001316189</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.4262547492981</v>
+        <v>39.40425395965576</v>
       </c>
       <c r="B401" t="n">
-        <v>4.11612e-08</v>
+        <v>0.0001316221</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.50625944137573</v>
+        <v>39.51426029205322</v>
       </c>
       <c r="B402" t="n">
-        <v>4.14217e-08</v>
+        <v>0.0001316245</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.61426591873169</v>
+        <v>39.60926580429077</v>
       </c>
       <c r="B403" t="n">
-        <v>4.200395e-08</v>
+        <v>0.000131645</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.70927095413208</v>
+        <v>39.70927143096924</v>
       </c>
       <c r="B404" t="n">
-        <v>4.205743e-08</v>
+        <v>0.0001316359</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.80527663230896</v>
+        <v>39.81627750396729</v>
       </c>
       <c r="B405" t="n">
-        <v>4.236909e-08</v>
+        <v>0.0001316985</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>39.90828251838684</v>
+        <v>39.90628266334534</v>
       </c>
       <c r="B406" t="n">
-        <v>4.248835e-08</v>
+        <v>0.0001317099</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>40.00028777122498</v>
+        <v>40.02228951454163</v>
       </c>
       <c r="B407" t="n">
-        <v>4.205578e-08</v>
+        <v>0.0001316285</v>
       </c>
     </row>
   </sheetData>
